--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>3120.971436030456</v>
+        <v>3694.883852835186</v>
       </c>
       <c r="R2">
-        <v>28088.74292427411</v>
+        <v>33253.95467551668</v>
       </c>
       <c r="S2">
-        <v>0.001326584748226816</v>
+        <v>0.00148645979407986</v>
       </c>
       <c r="T2">
-        <v>0.001326584748226816</v>
+        <v>0.00148645979407986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>3431.397266676317</v>
+        <v>4280.659629937608</v>
       </c>
       <c r="R3">
-        <v>30882.57540008685</v>
+        <v>38525.93666943847</v>
       </c>
       <c r="S3">
-        <v>0.001458532822994912</v>
+        <v>0.001722118660688211</v>
       </c>
       <c r="T3">
-        <v>0.001458532822994912</v>
+        <v>0.001722118660688211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1901.962475781829</v>
+        <v>3249.202748323613</v>
       </c>
       <c r="R4">
-        <v>17117.66228203646</v>
+        <v>29242.82473491251</v>
       </c>
       <c r="S4">
-        <v>0.0008084388030417294</v>
+        <v>0.001307161318343143</v>
       </c>
       <c r="T4">
-        <v>0.0008084388030417292</v>
+        <v>0.001307161318343143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>1384.154981804036</v>
+        <v>1667.661682155477</v>
       </c>
       <c r="R5">
-        <v>12457.39483623632</v>
+        <v>15008.9551393993</v>
       </c>
       <c r="S5">
-        <v>0.000588342099785075</v>
+        <v>0.000670903914543773</v>
       </c>
       <c r="T5">
-        <v>0.000588342099785075</v>
+        <v>0.0006709039145437729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>738458.6556895216</v>
+        <v>700805.4757877274</v>
       </c>
       <c r="R6">
-        <v>6646127.901205694</v>
+        <v>6307249.282089547</v>
       </c>
       <c r="S6">
-        <v>0.3138855993760005</v>
+        <v>0.2819355640719596</v>
       </c>
       <c r="T6">
-        <v>0.3138855993760005</v>
+        <v>0.2819355640719596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>811909.0688985606</v>
@@ -883,10 +883,10 @@
         <v>7307181.620087045</v>
       </c>
       <c r="S7">
-        <v>0.3451060702810466</v>
+        <v>0.3266327807409862</v>
       </c>
       <c r="T7">
-        <v>0.3451060702810465</v>
+        <v>0.3266327807409861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>450026.7566768136</v>
+        <v>616273.5199977858</v>
       </c>
       <c r="R8">
-        <v>4050240.810091322</v>
+        <v>5546461.679980072</v>
       </c>
       <c r="S8">
-        <v>0.1912861568706826</v>
+        <v>0.2479281747733036</v>
       </c>
       <c r="T8">
-        <v>0.1912861568706825</v>
+        <v>0.2479281747733036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>327507.3957193973</v>
+        <v>316303.9719690107</v>
       </c>
       <c r="R9">
-        <v>2947566.561474576</v>
+        <v>2846735.747721097</v>
       </c>
       <c r="S9">
-        <v>0.1392086806938008</v>
+        <v>0.1272497744899128</v>
       </c>
       <c r="T9">
-        <v>0.1392086806938008</v>
+        <v>0.1272497744899128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>4311.530112660478</v>
+        <v>7470.514669829319</v>
       </c>
       <c r="R10">
-        <v>38803.77101394431</v>
+        <v>67234.63202846388</v>
       </c>
       <c r="S10">
-        <v>0.001832637755970869</v>
+        <v>0.003005404267109556</v>
       </c>
       <c r="T10">
-        <v>0.001832637755970869</v>
+        <v>0.003005404267109556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>4740.374254303628</v>
+        <v>8654.867604960542</v>
       </c>
       <c r="R11">
-        <v>42663.36828873265</v>
+        <v>77893.80844464488</v>
       </c>
       <c r="S11">
-        <v>0.002014920134816924</v>
+        <v>0.003481872023659511</v>
       </c>
       <c r="T11">
-        <v>0.002014920134816924</v>
+        <v>0.003481872023659511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>2627.505139205512</v>
+        <v>6569.412669893746</v>
       </c>
       <c r="R12">
-        <v>23647.54625284961</v>
+        <v>59124.71402904371</v>
       </c>
       <c r="S12">
-        <v>0.001116834394354769</v>
+        <v>0.002642888976610943</v>
       </c>
       <c r="T12">
-        <v>0.001116834394354769</v>
+        <v>0.002642888976610943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>1912.169337963425</v>
+        <v>3371.767978929877</v>
       </c>
       <c r="R13">
-        <v>17209.52404167082</v>
+        <v>30345.91181036889</v>
       </c>
       <c r="S13">
-        <v>0.0008127772816131895</v>
+        <v>0.001356469576655117</v>
       </c>
       <c r="T13">
-        <v>0.0008127772816131895</v>
+        <v>0.001356469576655117</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>413.7699134543733</v>
+        <v>413.4873972728309</v>
       </c>
       <c r="R14">
-        <v>3723.92922108936</v>
+        <v>3721.386575455479</v>
       </c>
       <c r="S14">
-        <v>0.0001758750016507183</v>
+        <v>0.0001663468774351771</v>
       </c>
       <c r="T14">
-        <v>0.0001758750016507183</v>
+        <v>0.0001663468774351771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>454.9253266688268</v>
+        <v>479.0404460577596</v>
       </c>
       <c r="R15">
-        <v>4094.327940019441</v>
+        <v>4311.364014519836</v>
       </c>
       <c r="S15">
-        <v>0.0001933683189066772</v>
+        <v>0.0001927190112502582</v>
       </c>
       <c r="T15">
-        <v>0.0001933683189066771</v>
+        <v>0.0001927190112502582</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>252.15701749538</v>
+        <v>363.6120758126543</v>
       </c>
       <c r="R16">
-        <v>2269.41315745842</v>
+        <v>3272.508682313888</v>
       </c>
       <c r="S16">
-        <v>0.000107180620016565</v>
+        <v>0.0001462819273527887</v>
       </c>
       <c r="T16">
-        <v>0.000107180620016565</v>
+        <v>0.0001462819273527886</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>183.5075068027334</v>
+        <v>186.6248347581976</v>
       </c>
       <c r="R17">
-        <v>1651.5675612246</v>
+        <v>1679.623512823779</v>
       </c>
       <c r="S17">
-        <v>7.800079709132561E-05</v>
+        <v>7.507957610954235E-05</v>
       </c>
       <c r="T17">
-        <v>7.800079709132561E-05</v>
+        <v>7.507957610954233E-05</v>
       </c>
     </row>
   </sheetData>
